--- a/_Document/振れセンサ―開発環境構築.xlsx
+++ b/_Document/振れセンサ―開発環境構築.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\2020\001_DIT_振れセンサ\svn\trunk\doc\方式設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kazutaka.Toda\Desktop\Order\DIT_SwingSensor\trunk\doc\方式設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BBDC21-24C5-4756-851E-94C67CA58B0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C045495-84CE-4FC0-86FB-169BE144D0B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="-120" windowWidth="28020" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>振れセンサ―ソフトウェア開発時に用意した開発環境構築手順を以下に記載する。</t>
     <rPh sb="0" eb="1">
@@ -156,16 +156,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以上でPyloncのインストールが完了する。</t>
-    <rPh sb="0" eb="2">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>②ダウンロードしたpylon_Runtime_6.0.1.18259.exeを実行する。</t>
     <rPh sb="39" eb="41">
       <t>ジッコウ</t>
@@ -395,10 +385,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2020/02/13 Ver.1.00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>③以下URLを参考にcmakeを使用してOpenCVのコンフィグレーションを実行する。</t>
     <rPh sb="1" eb="3">
       <t>イカ</t>
@@ -456,6 +442,148 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③以下URLよりPylon SDKをダウンロードする。</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.baslerweb.com/jp/sales-support/downloads/software-downloads/pylon-6-0-1-windows/</t>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロードしたBasler_pylon_6.0.1.18259.exeを実行する。</t>
+    <rPh sb="37" eb="39">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記選択画面にて、Developerを選択し、Nextを押下する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記選択画面にて、USBを選択し、Nextを押下する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※注意事項：</t>
+    <rPh sb="1" eb="3">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Visual Studio2019にてビルドする際に、Pylonヘッダーファイル内にてエラーが発生する。</t>
+    <rPh sb="24" eb="25">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細：</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://developercommunity.visualstudio.com/content/problem/754327/visual-studio-1631-fails-at-compiling-template-cod.html</t>
+  </si>
+  <si>
+    <t>virtual CEnumParameterT&lt;EnumT&gt;&amp; operator=(EnumT value)</t>
+  </si>
+  <si>
+    <t>を</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>virtual IEnumParameterT&lt;EnumT&gt;&amp; operator=(EnumT value)</t>
+  </si>
+  <si>
+    <t>に変更する必要がある。</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上でPylonのインストールが完了する。</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/03/17 Ver.1.01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本エラーに対応するため、C:\Program Files\Basler\pylon 6\Development\include\pylon\EnumParameterT.h内155行目</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ギョウメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1122,7 +1250,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
-            <a:t>&lt;Ver. 1.00&gt;</a:t>
+            <a:t>&lt;Ver. 1.01&gt;</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
         </a:p>
@@ -1178,6 +1306,128 @@
         <a:xfrm>
           <a:off x="2106706" y="2608730"/>
           <a:ext cx="4527177" cy="3153198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>26472</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E1463E3-1B67-4B86-B694-54542DADA01B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="830580" y="8983980"/>
+          <a:ext cx="4910892" cy="3688080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA5EC24-B1CC-4A41-9010-7F65D95E55A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="746760" y="13312140"/>
+          <a:ext cx="4899660" cy="3674745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1464,11 +1714,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7B4820-A214-4357-9A2B-F745B1C30C13}">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="9"/>
@@ -2293,15 +2543,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ72"/>
+  <dimension ref="A1:AZ122"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB83" sqref="AB83"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:52" ht="19.5">
+    <row r="1" spans="1:52" ht="19.8">
       <c r="A1" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2345,7 +2597,7 @@
       <c r="AO1" s="6"/>
       <c r="AP1" s="6"/>
       <c r="AQ1" s="8" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="AR1" s="6"/>
       <c r="AS1" s="6"/>
@@ -2439,7 +2691,7 @@
     </row>
     <row r="10" spans="1:52">
       <c r="C10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:52">
@@ -2455,7 +2707,7 @@
     </row>
     <row r="28" spans="2:52">
       <c r="C28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:52">
@@ -2518,262 +2770,376 @@
       <c r="AY32" s="6"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="2:52">
+    <row r="33" spans="3:4">
       <c r="C33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:52">
+    <row r="34" spans="3:4">
       <c r="C34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:52">
+    <row r="35" spans="3:4">
       <c r="D35" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:52">
+    <row r="36" spans="3:4">
       <c r="C36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="D38" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8">
+      <c r="D76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8">
+      <c r="C78" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="3:8">
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="3:8">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="2:52">
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="2:52">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="2:52">
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="2:52">
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="2:52">
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="2:52">
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="88" spans="2:52">
+      <c r="C88" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="2:52">
+      <c r="B90" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="2:52">
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="2:52">
-      <c r="B40" s="5" t="s">
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="6"/>
+      <c r="AA90" s="6"/>
+      <c r="AB90" s="6"/>
+      <c r="AC90" s="6"/>
+      <c r="AD90" s="6"/>
+      <c r="AE90" s="6"/>
+      <c r="AF90" s="6"/>
+      <c r="AG90" s="6"/>
+      <c r="AH90" s="6"/>
+      <c r="AI90" s="6"/>
+      <c r="AJ90" s="6"/>
+      <c r="AK90" s="6"/>
+      <c r="AL90" s="6"/>
+      <c r="AM90" s="6"/>
+      <c r="AN90" s="6"/>
+      <c r="AO90" s="6"/>
+      <c r="AP90" s="6"/>
+      <c r="AQ90" s="6"/>
+      <c r="AR90" s="6"/>
+      <c r="AS90" s="6"/>
+      <c r="AT90" s="6"/>
+      <c r="AU90" s="6"/>
+      <c r="AV90" s="6"/>
+      <c r="AW90" s="6"/>
+      <c r="AX90" s="6"/>
+      <c r="AY90" s="6"/>
+      <c r="AZ90" s="6"/>
+    </row>
+    <row r="91" spans="2:52">
+      <c r="C91" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="6"/>
-      <c r="AL40" s="6"/>
-      <c r="AM40" s="6"/>
-      <c r="AN40" s="6"/>
-      <c r="AO40" s="6"/>
-      <c r="AP40" s="6"/>
-      <c r="AQ40" s="6"/>
-      <c r="AR40" s="6"/>
-      <c r="AS40" s="6"/>
-      <c r="AT40" s="6"/>
-      <c r="AU40" s="6"/>
-      <c r="AV40" s="6"/>
-      <c r="AW40" s="6"/>
-      <c r="AX40" s="6"/>
-      <c r="AY40" s="6"/>
-      <c r="AZ40" s="6"/>
-    </row>
-    <row r="41" spans="2:52">
-      <c r="C41" t="s">
+    </row>
+    <row r="92" spans="2:52">
+      <c r="C92" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:52">
-      <c r="C42" t="s">
+    <row r="94" spans="2:52">
+      <c r="C94" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:52">
-      <c r="C44" t="s">
+    <row r="96" spans="2:52">
+      <c r="C96" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:52">
-      <c r="C46" t="s">
+    <row r="98" spans="2:52">
+      <c r="C98" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="2:52">
-      <c r="C48" t="s">
+    <row r="99" spans="2:52">
+      <c r="D99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="2:52">
+      <c r="D100" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="2:52">
-      <c r="D49" t="s">
+    <row r="101" spans="2:52">
+      <c r="D101" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="2:52">
+      <c r="D102" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="2:52">
+      <c r="D103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="2:52">
+      <c r="D104" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="2:52">
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="2:52">
+      <c r="D106" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="2:52">
-      <c r="D50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="2:52">
-      <c r="D51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="2:52">
-      <c r="D52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="2:52">
-      <c r="D53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="2:52">
-      <c r="D54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="2:52">
-      <c r="D55" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="2:52">
-      <c r="D56" t="s">
+    <row r="108" spans="2:52">
+      <c r="C108" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:52">
-      <c r="C58" t="s">
+    <row r="110" spans="2:52">
+      <c r="B110" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="60" spans="2:52">
-      <c r="B60" s="5" t="s">
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+      <c r="T110" s="6"/>
+      <c r="U110" s="6"/>
+      <c r="V110" s="6"/>
+      <c r="W110" s="6"/>
+      <c r="X110" s="6"/>
+      <c r="Y110" s="6"/>
+      <c r="Z110" s="6"/>
+      <c r="AA110" s="6"/>
+      <c r="AB110" s="6"/>
+      <c r="AC110" s="6"/>
+      <c r="AD110" s="6"/>
+      <c r="AE110" s="6"/>
+      <c r="AF110" s="6"/>
+      <c r="AG110" s="6"/>
+      <c r="AH110" s="6"/>
+      <c r="AI110" s="6"/>
+      <c r="AJ110" s="6"/>
+      <c r="AK110" s="6"/>
+      <c r="AL110" s="6"/>
+      <c r="AM110" s="6"/>
+      <c r="AN110" s="6"/>
+      <c r="AO110" s="6"/>
+      <c r="AP110" s="6"/>
+      <c r="AQ110" s="6"/>
+      <c r="AR110" s="6"/>
+      <c r="AS110" s="6"/>
+      <c r="AT110" s="6"/>
+      <c r="AU110" s="6"/>
+      <c r="AV110" s="6"/>
+      <c r="AW110" s="6"/>
+      <c r="AX110" s="6"/>
+      <c r="AY110" s="6"/>
+      <c r="AZ110" s="6"/>
+    </row>
+    <row r="111" spans="2:52">
+      <c r="C111" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="6"/>
-      <c r="AA60" s="6"/>
-      <c r="AB60" s="6"/>
-      <c r="AC60" s="6"/>
-      <c r="AD60" s="6"/>
-      <c r="AE60" s="6"/>
-      <c r="AF60" s="6"/>
-      <c r="AG60" s="6"/>
-      <c r="AH60" s="6"/>
-      <c r="AI60" s="6"/>
-      <c r="AJ60" s="6"/>
-      <c r="AK60" s="6"/>
-      <c r="AL60" s="6"/>
-      <c r="AM60" s="6"/>
-      <c r="AN60" s="6"/>
-      <c r="AO60" s="6"/>
-      <c r="AP60" s="6"/>
-      <c r="AQ60" s="6"/>
-      <c r="AR60" s="6"/>
-      <c r="AS60" s="6"/>
-      <c r="AT60" s="6"/>
-      <c r="AU60" s="6"/>
-      <c r="AV60" s="6"/>
-      <c r="AW60" s="6"/>
-      <c r="AX60" s="6"/>
-      <c r="AY60" s="6"/>
-      <c r="AZ60" s="6"/>
-    </row>
-    <row r="61" spans="2:52">
-      <c r="C61" t="s">
+    </row>
+    <row r="112" spans="2:52">
+      <c r="C112" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="D113" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="2:52">
-      <c r="C62" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="2:52">
-      <c r="D63" t="s">
+    <row r="114" spans="2:6">
+      <c r="E114" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="2:52">
-      <c r="E64" t="s">
+    <row r="115" spans="2:6">
+      <c r="D115" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="2:6">
-      <c r="D65" t="s">
+    <row r="116" spans="2:6">
+      <c r="D116" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="2:6">
-      <c r="D66" t="s">
+    <row r="117" spans="2:6">
+      <c r="E117" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="E67" t="s">
+      <c r="F117" t="s">
         <v>36</v>
       </c>
-      <c r="F67" t="s">
+    </row>
+    <row r="118" spans="2:6">
+      <c r="D118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="C120" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="D68" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6">
-      <c r="C70" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6">
-      <c r="B72" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2782,10 +3148,12 @@
     <hyperlink ref="D7" r:id="rId1" xr:uid="{000219EF-50B0-4087-B67D-59258F41D2FA}"/>
     <hyperlink ref="D9" r:id="rId2" xr:uid="{D0A0D445-AB2F-48CE-87C3-B69485786260}"/>
     <hyperlink ref="D11" r:id="rId3" xr:uid="{8F9B21E3-876D-472D-AE53-EF5D6B84F053}"/>
-    <hyperlink ref="D35" r:id="rId4" xr:uid="{ED8BEA82-410C-4C25-BC87-29651EB529C4}"/>
+    <hyperlink ref="D35" r:id="rId4" xr:uid="{11E2E056-A937-4802-B4EA-1F0FC808154A}"/>
+    <hyperlink ref="D38" r:id="rId5" xr:uid="{8BC83BCC-D905-427E-9EC9-2E44876768B3}"/>
+    <hyperlink ref="H80" r:id="rId6" xr:uid="{2EBD0B73-7E4F-4365-82C5-44DFFD290D01}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>